--- a/StructureDefinition-ext-R5-MonetaryComponent.xlsx
+++ b/StructureDefinition-ext-R5-MonetaryComponent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-MonetaryComponent.xlsx
+++ b/StructureDefinition-ext-R5-MonetaryComponent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -429,6 +432,9 @@
     <t>Extension.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.code</t>
+  </si>
+  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -460,6 +466,9 @@
     <t>Extension.extension:factor.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.factor</t>
+  </si>
+  <si>
     <t>Extension.extension:factor.value[x]</t>
   </si>
   <si>
@@ -489,6 +498,9 @@
   </si>
   <si>
     <t>Extension.extension:amount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MonetaryComponent.amount</t>
   </si>
   <si>
     <t>Extension.extension:amount.value[x]</t>
@@ -1651,7 +1663,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1693,7 +1705,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1708,15 +1720,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1739,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1796,7 +1808,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1808,21 +1820,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1847,14 +1859,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1923,7 +1935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2026,7 +2038,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2131,7 +2143,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2174,7 +2186,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2216,7 +2228,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2231,15 +2243,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2262,13 +2274,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2319,7 +2331,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2331,21 +2343,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2370,14 +2382,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2446,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2549,7 +2561,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2654,7 +2666,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2697,7 +2709,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2739,7 +2751,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2754,15 +2766,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2785,13 +2797,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2842,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2854,21 +2866,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2893,14 +2905,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2969,7 +2981,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3072,7 +3084,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3220,7 +3232,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3262,7 +3274,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3277,15 +3289,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3308,13 +3320,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3365,7 +3377,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3377,18 +3389,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3470,7 +3482,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3485,15 +3497,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3516,13 +3528,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3573,7 +3585,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3585,10 +3597,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-MonetaryComponent.xlsx
+++ b/StructureDefinition-ext-R5-MonetaryComponent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-MonetaryComponent.xlsx
+++ b/StructureDefinition-ext-R5-MonetaryComponent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -402,6 +402,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-price-component-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -867,8 +876,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1784,13 +1793,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1808,7 +1817,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1820,7 +1829,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1828,13 +1837,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1859,14 +1868,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1935,7 +1944,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2038,7 +2047,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2143,7 +2152,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2186,7 +2195,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2248,7 +2257,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2274,13 +2283,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2331,7 +2340,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2343,7 +2352,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2351,13 +2360,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2382,14 +2391,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2458,7 +2467,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2561,7 +2570,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2666,7 +2675,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2709,7 +2718,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2771,7 +2780,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2797,13 +2806,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2854,7 +2863,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2866,7 +2875,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2874,13 +2883,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2905,14 +2914,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2981,7 +2990,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3084,7 +3093,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3189,7 +3198,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3232,7 +3241,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3294,7 +3303,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3320,13 +3329,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3377,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3389,7 +3398,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3502,10 +3511,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3528,13 +3537,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3585,7 +3594,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3597,7 +3606,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>120</v>
